--- a/Vorlagen/Inbetriebnahme_Protokoll_MRS.xlsx
+++ b/Vorlagen/Inbetriebnahme_Protokoll_MRS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgadmin\source\repos\ServiceTool\Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C93593-CC99-43CD-84A2-82560DBADA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FABED-033B-4577-A997-5599B84A68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{05895BAA-18DF-4997-A35E-D6804436E8A1}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,34 +660,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,13 +723,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,34 +735,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1161,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2127D053-701C-4168-BF1A-6CFCEE334747}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:BD54"/>
+  <dimension ref="A1:BD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:U7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3745,23 +3751,23 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -3773,14 +3779,14 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AF3" s="52" t="s">
+      <c r="AF3" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3791,23 +3797,23 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="75">
+      <c r="G4" s="53">
         <v>4</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -3827,21 +3833,21 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -3853,12 +3859,12 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -3901,21 +3907,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -3935,21 +3941,21 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -3961,24 +3967,68 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
     </row>
-    <row r="9" spans="1:55" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+    </row>
+    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4035,2661 +4085,2834 @@
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
     </row>
-    <row r="11" spans="1:55" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AD11" s="6"/>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
     </row>
-    <row r="12" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:55" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC12" s="15"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="34"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="34"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="17"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="34"/>
+      <c r="BC12" s="36"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="66"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="48"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="S13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="V13" s="29"/>
+      <c r="W13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="36"/>
     </row>
-    <row r="14" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="68"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="68"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="68"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="68"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="68"/>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="36"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="S15" s="48"/>
-      <c r="T15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="U15" s="48"/>
-      <c r="V15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="W15" s="48"/>
-      <c r="X15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC15" s="48"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="50"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="50"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="50"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="50"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="50"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="50"/>
     </row>
-    <row r="16" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="67"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="67"/>
-      <c r="BC16" s="68"/>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="42">
+        <v>1</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="74"/>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="S17" s="48"/>
-      <c r="T17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="U17" s="48"/>
-      <c r="V17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="W17" s="48"/>
-      <c r="X17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC17" s="48"/>
-      <c r="BD17" t="s">
-        <v>92</v>
-      </c>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="50"/>
+      <c r="S17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="50"/>
+      <c r="U17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="V17" s="50"/>
+      <c r="W17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="50"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="50"/>
     </row>
-    <row r="18" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="67"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="68"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="67"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="67"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="67"/>
-      <c r="BC18" s="68"/>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A18" s="44"/>
+      <c r="B18" s="42">
+        <v>2</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="74"/>
+      <c r="BD18" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="69"/>
-      <c r="AN20" s="69"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="70"/>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="50"/>
+      <c r="S19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" s="50"/>
+      <c r="U19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="V19" s="50"/>
+      <c r="W19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL19" s="50"/>
+      <c r="AM19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="50"/>
     </row>
-    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="71"/>
+    <row r="20" spans="1:56" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="42">
+        <v>3</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="74"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="50"/>
+      <c r="U21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="V21" s="50"/>
+      <c r="W21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="72"/>
+      <c r="BB21" s="50"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="71"/>
-    </row>
-    <row r="23" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="51"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
-      <c r="BB23" s="71"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="42">
+        <v>4</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="73"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="73"/>
+      <c r="BB22" s="74"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="51"/>
-      <c r="BB24" s="71"/>
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
     </row>
     <row r="25" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="62"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="72"/>
-      <c r="AM25" s="72"/>
-      <c r="AN25" s="72"/>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="72"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="72"/>
-      <c r="BA25" s="72"/>
-      <c r="BB25" s="73"/>
+      <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="1:56" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
+    <row r="26" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="12"/>
+      <c r="T26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="12"/>
+      <c r="V26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="12"/>
+      <c r="X26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC26" s="15"/>
     </row>
-    <row r="28" spans="1:56" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31"/>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="31"/>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="31"/>
-      <c r="BC28" s="31"/>
+    <row r="27" spans="1:56" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="50"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="50"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="50"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="50"/>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="50"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="50"/>
     </row>
-    <row r="29" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="51"/>
+      <c r="BC28" s="52"/>
+    </row>
+    <row r="29" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="64"/>
-      <c r="BA29" s="64"/>
-      <c r="BB29" s="65"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="50"/>
+      <c r="L29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="50"/>
+      <c r="N29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="50"/>
+      <c r="P29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="S29" s="50"/>
+      <c r="T29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" s="50"/>
+      <c r="V29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="W29" s="50"/>
+      <c r="X29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI29" s="50"/>
+      <c r="AJ29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM29" s="50"/>
+      <c r="AN29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO29" s="50"/>
+      <c r="AP29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ29" s="50"/>
+      <c r="AR29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS29" s="50"/>
+      <c r="AT29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU29" s="50"/>
+      <c r="AV29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW29" s="50"/>
+      <c r="AX29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY29" s="50"/>
+      <c r="AZ29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA29" s="50"/>
+      <c r="BB29" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC29" s="50"/>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="58"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="58"/>
-      <c r="AM30" s="58"/>
-      <c r="AN30" s="58"/>
-      <c r="AO30" s="58"/>
-      <c r="AP30" s="58"/>
-      <c r="AQ30" s="58"/>
-      <c r="AR30" s="58"/>
-      <c r="AS30" s="58"/>
-      <c r="AT30" s="58"/>
-      <c r="AU30" s="58"/>
-      <c r="AV30" s="58"/>
-      <c r="AW30" s="58"/>
-      <c r="AX30" s="58"/>
-      <c r="AY30" s="58"/>
-      <c r="AZ30" s="58"/>
-      <c r="BA30" s="58"/>
-      <c r="BB30" s="59"/>
+    <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="51"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="51"/>
+      <c r="BC30" s="52"/>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="58"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="58"/>
-      <c r="AO31" s="58"/>
-      <c r="AP31" s="58"/>
-      <c r="AQ31" s="58"/>
-      <c r="AR31" s="58"/>
-      <c r="AS31" s="58"/>
-      <c r="AT31" s="58"/>
-      <c r="AU31" s="58"/>
-      <c r="AV31" s="58"/>
-      <c r="AW31" s="58"/>
-      <c r="AX31" s="58"/>
-      <c r="AY31" s="58"/>
-      <c r="AZ31" s="58"/>
-      <c r="BA31" s="58"/>
-      <c r="BB31" s="59"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="50"/>
+      <c r="L31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="50"/>
+      <c r="N31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="50"/>
+      <c r="P31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" s="50"/>
+      <c r="T31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="U31" s="50"/>
+      <c r="V31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="W31" s="50"/>
+      <c r="X31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI31" s="50"/>
+      <c r="AJ31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK31" s="50"/>
+      <c r="AL31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM31" s="50"/>
+      <c r="AN31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU31" s="50"/>
+      <c r="AV31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW31" s="50"/>
+      <c r="AX31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA31" s="50"/>
+      <c r="BB31" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC31" s="50"/>
     </row>
     <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="57"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="58"/>
-      <c r="AF32" s="58"/>
-      <c r="AG32" s="58"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="58"/>
-      <c r="AJ32" s="58"/>
-      <c r="AK32" s="58"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="58"/>
-      <c r="AN32" s="58"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="58"/>
-      <c r="AQ32" s="58"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="58"/>
-      <c r="AT32" s="58"/>
-      <c r="AU32" s="58"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="58"/>
-      <c r="AX32" s="58"/>
-      <c r="AY32" s="58"/>
-      <c r="AZ32" s="58"/>
-      <c r="BA32" s="58"/>
-      <c r="BB32" s="59"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="52"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="52"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="58"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="58"/>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="58"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="58"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="58"/>
-      <c r="AS33" s="58"/>
-      <c r="AT33" s="58"/>
-      <c r="AU33" s="58"/>
-      <c r="AV33" s="58"/>
-      <c r="AW33" s="58"/>
-      <c r="AX33" s="58"/>
-      <c r="AY33" s="58"/>
-      <c r="AZ33" s="58"/>
-      <c r="BA33" s="58"/>
-      <c r="BB33" s="59"/>
+    <row r="33" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="54"/>
+      <c r="AU34" s="54"/>
+      <c r="AV34" s="54"/>
+      <c r="AW34" s="54"/>
+      <c r="AX34" s="54"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="54"/>
+      <c r="BB34" s="55"/>
     </row>
-    <row r="34" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="57"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="58"/>
-      <c r="AX34" s="58"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="58"/>
-      <c r="BA34" s="58"/>
-      <c r="BB34" s="59"/>
+    <row r="35" spans="1:55" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="57"/>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="58"/>
-      <c r="AL35" s="58"/>
-      <c r="AM35" s="58"/>
-      <c r="AN35" s="58"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="58"/>
-      <c r="AS35" s="58"/>
-      <c r="AT35" s="58"/>
-      <c r="AU35" s="58"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="58"/>
-      <c r="AX35" s="58"/>
-      <c r="AY35" s="58"/>
-      <c r="AZ35" s="58"/>
-      <c r="BA35" s="58"/>
-      <c r="BB35" s="59"/>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="56"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
+      <c r="AX36" s="56"/>
+      <c r="AY36" s="56"/>
+      <c r="AZ36" s="56"/>
+      <c r="BA36" s="56"/>
+      <c r="BB36" s="57"/>
     </row>
-    <row r="36" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="62"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="61"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="61"/>
-      <c r="AL36" s="61"/>
-      <c r="AM36" s="61"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="61"/>
-      <c r="AP36" s="61"/>
-      <c r="AQ36" s="61"/>
-      <c r="AR36" s="61"/>
-      <c r="AS36" s="61"/>
-      <c r="AT36" s="61"/>
-      <c r="AU36" s="61"/>
-      <c r="AV36" s="61"/>
-      <c r="AW36" s="61"/>
-      <c r="AX36" s="61"/>
-      <c r="AY36" s="61"/>
-      <c r="AZ36" s="61"/>
-      <c r="BA36" s="61"/>
-      <c r="BB36" s="62"/>
+    <row r="37" spans="1:55" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="56"/>
+      <c r="AQ37" s="56"/>
+      <c r="AR37" s="56"/>
+      <c r="AS37" s="56"/>
+      <c r="AT37" s="56"/>
+      <c r="AU37" s="56"/>
+      <c r="AV37" s="56"/>
+      <c r="AW37" s="56"/>
+      <c r="AX37" s="56"/>
+      <c r="AY37" s="56"/>
+      <c r="AZ37" s="56"/>
+      <c r="BA37" s="56"/>
+      <c r="BB37" s="57"/>
     </row>
-    <row r="37" spans="1:55" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
+    <row r="38" spans="1:55" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="56"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="56"/>
+      <c r="AY38" s="56"/>
+      <c r="AZ38" s="56"/>
+      <c r="BA38" s="56"/>
+      <c r="BB38" s="57"/>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
+    <row r="39" spans="1:55" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="63"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
+      <c r="AZ39" s="58"/>
+      <c r="BA39" s="58"/>
+      <c r="BB39" s="59"/>
     </row>
-    <row r="39" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="31"/>
-      <c r="AX39" s="31"/>
-      <c r="AY39" s="31"/>
-      <c r="AZ39" s="31"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="31"/>
-      <c r="BC39" s="31"/>
+    <row r="40" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="R40" s="34"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="U40" s="17"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR40" s="34"/>
-      <c r="AS40" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV40" s="34"/>
-      <c r="AW40" s="33"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="33"/>
-      <c r="AZ40" s="34"/>
-      <c r="BA40" s="33"/>
-      <c r="BB40" s="34"/>
-      <c r="BC40" s="36"/>
+    <row r="42" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42" s="31"/>
+      <c r="AP42" s="31"/>
+      <c r="AQ42" s="31"/>
+      <c r="AR42" s="31"/>
+      <c r="AS42" s="31"/>
+      <c r="AT42" s="31"/>
+      <c r="AU42" s="31"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="31"/>
+      <c r="AX42" s="31"/>
+      <c r="AY42" s="31"/>
+      <c r="AZ42" s="31"/>
+      <c r="BA42" s="31"/>
+      <c r="BB42" s="31"/>
+      <c r="BC42" s="31"/>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="38"/>
-      <c r="S41" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="V41" s="29"/>
-      <c r="W41" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ41" s="38"/>
-      <c r="AK41" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL41" s="29"/>
-      <c r="AM41" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN41" s="38"/>
-      <c r="AO41" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP41" s="38"/>
-      <c r="AQ41" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR41" s="38"/>
-      <c r="AS41" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT41" s="38"/>
-      <c r="AU41" s="37"/>
-      <c r="AV41" s="38"/>
-      <c r="AW41" s="37"/>
-      <c r="AX41" s="38"/>
-      <c r="AY41" s="37"/>
-      <c r="AZ41" s="38"/>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="38"/>
-      <c r="BC41" s="36"/>
-    </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="N42" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="O42" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="P42" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q42" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="R42" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="S42" s="39"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="39"/>
-      <c r="AH42" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="28"/>
-      <c r="AL42" s="29"/>
-      <c r="AM42" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN42" s="40"/>
-      <c r="AO42" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP42" s="40"/>
-      <c r="AQ42" s="39"/>
-      <c r="AR42" s="40"/>
-      <c r="AS42" s="39"/>
-      <c r="AT42" s="40"/>
-      <c r="AU42" s="39"/>
-      <c r="AV42" s="40"/>
-      <c r="AW42" s="39"/>
-      <c r="AX42" s="40"/>
-      <c r="AY42" s="39"/>
-      <c r="AZ42" s="40"/>
-      <c r="BA42" s="39"/>
-      <c r="BB42" s="40"/>
-      <c r="BC42" s="36"/>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="47"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="47"/>
-      <c r="AL43" s="48"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="48"/>
-      <c r="AO43" s="47"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="47"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="47"/>
-      <c r="AT43" s="48"/>
-      <c r="AU43" s="47"/>
-      <c r="AV43" s="48"/>
-      <c r="AW43" s="47"/>
-      <c r="AX43" s="48"/>
-      <c r="AY43" s="47"/>
-      <c r="AZ43" s="48"/>
-      <c r="BA43" s="47"/>
-      <c r="BB43" s="48"/>
+    <row r="43" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="70"/>
+      <c r="AF43" s="70"/>
+      <c r="AG43" s="70"/>
+      <c r="AH43" s="70"/>
+      <c r="AI43" s="70"/>
+      <c r="AJ43" s="70"/>
+      <c r="AK43" s="70"/>
+      <c r="AL43" s="70"/>
+      <c r="AM43" s="70"/>
+      <c r="AN43" s="70"/>
+      <c r="AO43" s="70"/>
+      <c r="AP43" s="70"/>
+      <c r="AQ43" s="70"/>
+      <c r="AR43" s="70"/>
+      <c r="AS43" s="70"/>
+      <c r="AT43" s="70"/>
+      <c r="AU43" s="70"/>
+      <c r="AV43" s="70"/>
+      <c r="AW43" s="70"/>
+      <c r="AX43" s="70"/>
+      <c r="AY43" s="70"/>
+      <c r="AZ43" s="70"/>
+      <c r="BA43" s="70"/>
+      <c r="BB43" s="71"/>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="42">
-        <v>1</v>
-      </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="49"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="49"/>
-      <c r="AH44" s="52"/>
-      <c r="AI44" s="52"/>
-      <c r="AJ44" s="50"/>
-      <c r="AK44" s="49"/>
-      <c r="AL44" s="50"/>
-      <c r="AM44" s="49"/>
-      <c r="AN44" s="50"/>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="50"/>
-      <c r="AQ44" s="49"/>
-      <c r="AR44" s="50"/>
-      <c r="AS44" s="49"/>
-      <c r="AT44" s="50"/>
-      <c r="AU44" s="49"/>
-      <c r="AV44" s="50"/>
-      <c r="AW44" s="49"/>
-      <c r="AX44" s="50"/>
-      <c r="AY44" s="49"/>
-      <c r="AZ44" s="50"/>
-      <c r="BA44" s="49"/>
-      <c r="BB44" s="50"/>
+      <c r="A44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="66"/>
+      <c r="AO44" s="66"/>
+      <c r="AP44" s="66"/>
+      <c r="AQ44" s="66"/>
+      <c r="AR44" s="66"/>
+      <c r="AS44" s="66"/>
+      <c r="AT44" s="66"/>
+      <c r="AU44" s="66"/>
+      <c r="AV44" s="66"/>
+      <c r="AW44" s="66"/>
+      <c r="AX44" s="66"/>
+      <c r="AY44" s="66"/>
+      <c r="AZ44" s="66"/>
+      <c r="BA44" s="66"/>
+      <c r="BB44" s="67"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="48"/>
-      <c r="I45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="L45" s="48"/>
-      <c r="M45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="N45" s="48"/>
-      <c r="O45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="R45" s="48"/>
-      <c r="S45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="T45" s="48"/>
-      <c r="U45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="V45" s="48"/>
-      <c r="W45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF45" s="48"/>
-      <c r="AG45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL45" s="48"/>
-      <c r="AM45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN45" s="48"/>
-      <c r="AO45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP45" s="48"/>
-      <c r="AQ45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR45" s="48"/>
-      <c r="AS45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT45" s="48"/>
-      <c r="AU45" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV45" s="48"/>
-      <c r="AW45" s="47"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="47"/>
-      <c r="AZ45" s="48"/>
-      <c r="BA45" s="47"/>
-      <c r="BB45" s="48"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="66"/>
+      <c r="AM45" s="66"/>
+      <c r="AN45" s="66"/>
+      <c r="AO45" s="66"/>
+      <c r="AP45" s="66"/>
+      <c r="AQ45" s="66"/>
+      <c r="AR45" s="66"/>
+      <c r="AS45" s="66"/>
+      <c r="AT45" s="66"/>
+      <c r="AU45" s="66"/>
+      <c r="AV45" s="66"/>
+      <c r="AW45" s="66"/>
+      <c r="AX45" s="66"/>
+      <c r="AY45" s="66"/>
+      <c r="AZ45" s="66"/>
+      <c r="BA45" s="66"/>
+      <c r="BB45" s="67"/>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="42">
-        <v>2</v>
-      </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="52"/>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="50"/>
-      <c r="AK46" s="49"/>
-      <c r="AL46" s="50"/>
-      <c r="AM46" s="49"/>
-      <c r="AN46" s="50"/>
-      <c r="AO46" s="49"/>
-      <c r="AP46" s="50"/>
-      <c r="AQ46" s="49"/>
-      <c r="AR46" s="50"/>
-      <c r="AS46" s="49"/>
-      <c r="AT46" s="50"/>
-      <c r="AU46" s="49"/>
-      <c r="AV46" s="50"/>
-      <c r="AW46" s="49"/>
-      <c r="AX46" s="50"/>
-      <c r="AY46" s="49"/>
-      <c r="AZ46" s="50"/>
-      <c r="BA46" s="49"/>
-      <c r="BB46" s="50"/>
+    <row r="46" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="65"/>
+      <c r="AC46" s="66"/>
+      <c r="AD46" s="66"/>
+      <c r="AE46" s="66"/>
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="66"/>
+      <c r="AL46" s="66"/>
+      <c r="AM46" s="66"/>
+      <c r="AN46" s="66"/>
+      <c r="AO46" s="66"/>
+      <c r="AP46" s="66"/>
+      <c r="AQ46" s="66"/>
+      <c r="AR46" s="66"/>
+      <c r="AS46" s="66"/>
+      <c r="AT46" s="66"/>
+      <c r="AU46" s="66"/>
+      <c r="AV46" s="66"/>
+      <c r="AW46" s="66"/>
+      <c r="AX46" s="66"/>
+      <c r="AY46" s="66"/>
+      <c r="AZ46" s="66"/>
+      <c r="BA46" s="66"/>
+      <c r="BB46" s="67"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="L47" s="48"/>
-      <c r="M47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="R47" s="48"/>
-      <c r="S47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="T47" s="48"/>
-      <c r="U47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="V47" s="48"/>
-      <c r="W47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="48"/>
-      <c r="AK47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL47" s="48"/>
-      <c r="AM47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN47" s="48"/>
-      <c r="AO47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP47" s="48"/>
-      <c r="AQ47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR47" s="48"/>
-      <c r="AS47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT47" s="48"/>
-      <c r="AU47" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV47" s="48"/>
-      <c r="AW47" s="47"/>
-      <c r="AX47" s="48"/>
-      <c r="AY47" s="47"/>
-      <c r="AZ47" s="48"/>
-      <c r="BA47" s="47"/>
-      <c r="BB47" s="48"/>
+      <c r="A47" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="66"/>
+      <c r="AD47" s="66"/>
+      <c r="AE47" s="66"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="66"/>
+      <c r="AL47" s="66"/>
+      <c r="AM47" s="66"/>
+      <c r="AN47" s="66"/>
+      <c r="AO47" s="66"/>
+      <c r="AP47" s="66"/>
+      <c r="AQ47" s="66"/>
+      <c r="AR47" s="66"/>
+      <c r="AS47" s="66"/>
+      <c r="AT47" s="66"/>
+      <c r="AU47" s="66"/>
+      <c r="AV47" s="66"/>
+      <c r="AW47" s="66"/>
+      <c r="AX47" s="66"/>
+      <c r="AY47" s="66"/>
+      <c r="AZ47" s="66"/>
+      <c r="BA47" s="66"/>
+      <c r="BB47" s="67"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="42">
-        <v>3</v>
-      </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="50"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="50"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="52"/>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="49"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="50"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="50"/>
-      <c r="AS48" s="49"/>
-      <c r="AT48" s="50"/>
-      <c r="AU48" s="49"/>
-      <c r="AV48" s="50"/>
-      <c r="AW48" s="49"/>
-      <c r="AX48" s="50"/>
-      <c r="AY48" s="49"/>
-      <c r="AZ48" s="50"/>
-      <c r="BA48" s="49"/>
-      <c r="BB48" s="50"/>
+    <row r="48" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="65"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="66"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
+      <c r="AR48" s="66"/>
+      <c r="AS48" s="66"/>
+      <c r="AT48" s="66"/>
+      <c r="AU48" s="66"/>
+      <c r="AV48" s="66"/>
+      <c r="AW48" s="66"/>
+      <c r="AX48" s="66"/>
+      <c r="AY48" s="66"/>
+      <c r="AZ48" s="66"/>
+      <c r="BA48" s="66"/>
+      <c r="BB48" s="67"/>
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="48"/>
-      <c r="M49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="N49" s="48"/>
-      <c r="O49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="R49" s="48"/>
-      <c r="S49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="T49" s="48"/>
-      <c r="U49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="V49" s="48"/>
-      <c r="W49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z49" s="48"/>
-      <c r="AA49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF49" s="48"/>
-      <c r="AG49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH49" s="53"/>
-      <c r="AI49" s="53"/>
-      <c r="AJ49" s="48"/>
-      <c r="AK49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL49" s="48"/>
-      <c r="AM49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN49" s="48"/>
-      <c r="AO49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP49" s="48"/>
-      <c r="AQ49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR49" s="48"/>
-      <c r="AS49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT49" s="48"/>
-      <c r="AU49" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV49" s="48"/>
-      <c r="AW49" s="47"/>
-      <c r="AX49" s="48"/>
-      <c r="AY49" s="47"/>
-      <c r="AZ49" s="48"/>
-      <c r="BA49" s="47"/>
-      <c r="BB49" s="48"/>
+      <c r="A49" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="65"/>
+      <c r="AC49" s="66"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="66"/>
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="66"/>
+      <c r="AN49" s="66"/>
+      <c r="AO49" s="66"/>
+      <c r="AP49" s="66"/>
+      <c r="AQ49" s="66"/>
+      <c r="AR49" s="66"/>
+      <c r="AS49" s="66"/>
+      <c r="AT49" s="66"/>
+      <c r="AU49" s="66"/>
+      <c r="AV49" s="66"/>
+      <c r="AW49" s="66"/>
+      <c r="AX49" s="66"/>
+      <c r="AY49" s="66"/>
+      <c r="AZ49" s="66"/>
+      <c r="BA49" s="66"/>
+      <c r="BB49" s="67"/>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="42">
-        <v>4</v>
-      </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="50"/>
-      <c r="AC50" s="49"/>
-      <c r="AD50" s="50"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="50"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="52"/>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="50"/>
-      <c r="AK50" s="49"/>
-      <c r="AL50" s="50"/>
-      <c r="AM50" s="49"/>
-      <c r="AN50" s="50"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="50"/>
-      <c r="AQ50" s="49"/>
-      <c r="AR50" s="50"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="50"/>
-      <c r="AU50" s="49"/>
-      <c r="AV50" s="50"/>
-      <c r="AW50" s="49"/>
-      <c r="AX50" s="50"/>
-      <c r="AY50" s="49"/>
-      <c r="AZ50" s="50"/>
-      <c r="BA50" s="49"/>
-      <c r="BB50" s="50"/>
+    <row r="50" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="68"/>
+      <c r="Z50" s="63"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="68"/>
+      <c r="AD50" s="68"/>
+      <c r="AE50" s="68"/>
+      <c r="AF50" s="68"/>
+      <c r="AG50" s="68"/>
+      <c r="AH50" s="68"/>
+      <c r="AI50" s="68"/>
+      <c r="AJ50" s="68"/>
+      <c r="AK50" s="68"/>
+      <c r="AL50" s="68"/>
+      <c r="AM50" s="68"/>
+      <c r="AN50" s="68"/>
+      <c r="AO50" s="68"/>
+      <c r="AP50" s="68"/>
+      <c r="AQ50" s="68"/>
+      <c r="AR50" s="68"/>
+      <c r="AS50" s="68"/>
+      <c r="AT50" s="68"/>
+      <c r="AU50" s="68"/>
+      <c r="AV50" s="68"/>
+      <c r="AW50" s="68"/>
+      <c r="AX50" s="68"/>
+      <c r="AY50" s="68"/>
+      <c r="AZ50" s="68"/>
+      <c r="BA50" s="68"/>
+      <c r="BB50" s="63"/>
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
-      <c r="AL51" s="46"/>
-      <c r="AM51" s="46"/>
-      <c r="AN51" s="46"/>
-      <c r="AO51" s="46"/>
-      <c r="AP51" s="46"/>
-      <c r="AQ51" s="46"/>
-      <c r="AR51" s="46"/>
-      <c r="AS51" s="46"/>
-      <c r="AT51" s="46"/>
-      <c r="AU51" s="46"/>
-      <c r="AV51" s="46"/>
-      <c r="AW51" s="46"/>
-      <c r="AX51" s="46"/>
-      <c r="AY51" s="46"/>
-      <c r="AZ51" s="46"/>
-      <c r="BA51" s="46"/>
-      <c r="BB51" s="46"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:55" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G52" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="AL52" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM52" s="51"/>
-      <c r="AN52" s="51"/>
-      <c r="AO52" s="51"/>
-      <c r="AP52" s="51"/>
-      <c r="AQ52" s="51"/>
-      <c r="AR52" s="51"/>
-      <c r="AS52" s="51"/>
-      <c r="AT52" s="51"/>
-      <c r="AU52" s="51"/>
-      <c r="AV52" s="51"/>
-      <c r="AW52" s="51"/>
-      <c r="AX52" s="51"/>
-      <c r="AY52" s="51"/>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="46"/>
+      <c r="AL52" s="46"/>
+      <c r="AM52" s="46"/>
+      <c r="AN52" s="46"/>
+      <c r="AO52" s="46"/>
+      <c r="AP52" s="46"/>
+      <c r="AQ52" s="46"/>
+      <c r="AR52" s="46"/>
+      <c r="AS52" s="46"/>
+      <c r="AT52" s="46"/>
+      <c r="AU52" s="46"/>
+      <c r="AV52" s="46"/>
+      <c r="AW52" s="46"/>
+      <c r="AX52" s="46"/>
+      <c r="AY52" s="46"/>
+      <c r="AZ52" s="46"/>
+      <c r="BA52" s="46"/>
+      <c r="BB52" s="46"/>
     </row>
-    <row r="53" spans="1:55" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
-      <c r="AO53" s="52"/>
-      <c r="AP53" s="52"/>
-      <c r="AQ53" s="52"/>
-      <c r="AR53" s="52"/>
-      <c r="AS53" s="52"/>
-      <c r="AT53" s="52"/>
-      <c r="AU53" s="52"/>
-      <c r="AV53" s="52"/>
-      <c r="AW53" s="52"/>
-      <c r="AX53" s="52"/>
-      <c r="AY53" s="52"/>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="G53" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="AL53" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56"/>
+      <c r="AP53" s="56"/>
+      <c r="AQ53" s="56"/>
+      <c r="AR53" s="56"/>
+      <c r="AS53" s="56"/>
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
+      <c r="AW53" s="56"/>
+      <c r="AX53" s="56"/>
+      <c r="AY53" s="56"/>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45" t="s">
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="AL54" s="48"/>
+      <c r="AM54" s="48"/>
+      <c r="AN54" s="48"/>
+      <c r="AO54" s="48"/>
+      <c r="AP54" s="48"/>
+      <c r="AQ54" s="48"/>
+      <c r="AR54" s="48"/>
+      <c r="AS54" s="48"/>
+      <c r="AT54" s="48"/>
+      <c r="AU54" s="48"/>
+      <c r="AV54" s="48"/>
+      <c r="AW54" s="48"/>
+      <c r="AX54" s="48"/>
+      <c r="AY54" s="48"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="45"/>
-      <c r="AJ54" s="45"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="45"/>
-      <c r="AO54" s="45"/>
-      <c r="AP54" s="45" t="s">
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+      <c r="Y55" s="45"/>
+      <c r="Z55" s="45"/>
+      <c r="AA55" s="45"/>
+      <c r="AB55" s="45"/>
+      <c r="AC55" s="45"/>
+      <c r="AD55" s="45"/>
+      <c r="AE55" s="45"/>
+      <c r="AF55" s="45"/>
+      <c r="AG55" s="45"/>
+      <c r="AH55" s="45"/>
+      <c r="AI55" s="45"/>
+      <c r="AJ55" s="45"/>
+      <c r="AK55" s="45"/>
+      <c r="AL55" s="45"/>
+      <c r="AM55" s="45"/>
+      <c r="AN55" s="45"/>
+      <c r="AO55" s="45"/>
+      <c r="AP55" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="AQ54" s="45"/>
-      <c r="AR54" s="45"/>
-      <c r="AS54" s="45"/>
-      <c r="AT54" s="45"/>
-      <c r="AU54" s="45"/>
-      <c r="AV54" s="45"/>
-      <c r="AW54" s="45"/>
-      <c r="AX54" s="45"/>
-      <c r="AY54" s="45"/>
-      <c r="AZ54" s="45"/>
-      <c r="BA54" s="45"/>
-      <c r="BB54" s="45"/>
-      <c r="BC54" s="45"/>
+      <c r="AQ55" s="45"/>
+      <c r="AR55" s="45"/>
+      <c r="AS55" s="45"/>
+      <c r="AT55" s="45"/>
+      <c r="AU55" s="45"/>
+      <c r="AV55" s="45"/>
+      <c r="AW55" s="45"/>
+      <c r="AX55" s="45"/>
+      <c r="AY55" s="45"/>
+      <c r="AZ55" s="45"/>
+      <c r="BA55" s="45"/>
+      <c r="BB55" s="45"/>
+      <c r="BC55" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="197">
+    <mergeCell ref="AU21:AV22"/>
+    <mergeCell ref="AW21:AX22"/>
+    <mergeCell ref="AY21:AZ22"/>
+    <mergeCell ref="BA21:BB22"/>
+    <mergeCell ref="AW19:AX20"/>
+    <mergeCell ref="AY19:AZ20"/>
+    <mergeCell ref="BA19:BB20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AE21:AF22"/>
+    <mergeCell ref="AG21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="AY17:AZ18"/>
+    <mergeCell ref="BA17:BB18"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="U19:V20"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="AC19:AD20"/>
+    <mergeCell ref="AE19:AF20"/>
+    <mergeCell ref="AG19:AJ20"/>
+    <mergeCell ref="AK19:AL20"/>
+    <mergeCell ref="AM19:AN20"/>
+    <mergeCell ref="AO19:AP20"/>
+    <mergeCell ref="AQ19:AR20"/>
+    <mergeCell ref="AS19:AT20"/>
+    <mergeCell ref="AU19:AV20"/>
+    <mergeCell ref="BA15:BB16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:X18"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AC17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="AG17:AJ18"/>
+    <mergeCell ref="AK17:AL18"/>
+    <mergeCell ref="AM17:AN18"/>
+    <mergeCell ref="AO17:AP18"/>
+    <mergeCell ref="AQ17:AR18"/>
+    <mergeCell ref="AS17:AT18"/>
+    <mergeCell ref="AU17:AV18"/>
+    <mergeCell ref="AW17:AX18"/>
+    <mergeCell ref="AG15:AJ16"/>
+    <mergeCell ref="AK15:AL16"/>
+    <mergeCell ref="AM15:AN16"/>
+    <mergeCell ref="AO15:AP16"/>
+    <mergeCell ref="AQ15:AR16"/>
+    <mergeCell ref="AS15:AT16"/>
+    <mergeCell ref="AU15:AV16"/>
+    <mergeCell ref="AW15:AX16"/>
+    <mergeCell ref="AY15:AZ16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="G53:U54"/>
+    <mergeCell ref="AL53:AY54"/>
+    <mergeCell ref="E44:Z46"/>
+    <mergeCell ref="E47:Z48"/>
+    <mergeCell ref="E49:Z50"/>
+    <mergeCell ref="AB44:BB50"/>
+    <mergeCell ref="AB43:BB43"/>
+    <mergeCell ref="AZ31:BA32"/>
+    <mergeCell ref="BB31:BC32"/>
+    <mergeCell ref="P34:BB39"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="AN31:AO32"/>
+    <mergeCell ref="AP31:AQ32"/>
+    <mergeCell ref="AR31:AS32"/>
+    <mergeCell ref="AT31:AU32"/>
+    <mergeCell ref="AV31:AW32"/>
+    <mergeCell ref="AX31:AY32"/>
+    <mergeCell ref="AB31:AC32"/>
+    <mergeCell ref="AD31:AE32"/>
+    <mergeCell ref="AF31:AG32"/>
+    <mergeCell ref="AH31:AI32"/>
+    <mergeCell ref="AJ31:AK32"/>
+    <mergeCell ref="AL31:AM32"/>
+    <mergeCell ref="P31:Q32"/>
+    <mergeCell ref="R31:S32"/>
+    <mergeCell ref="T31:U32"/>
+    <mergeCell ref="V31:W32"/>
+    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="Z31:AA32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="N31:O32"/>
+    <mergeCell ref="AR29:AS30"/>
+    <mergeCell ref="AT29:AU30"/>
+    <mergeCell ref="AV29:AW30"/>
+    <mergeCell ref="T29:U30"/>
+    <mergeCell ref="V29:W30"/>
+    <mergeCell ref="X29:Y30"/>
+    <mergeCell ref="Z29:AA30"/>
+    <mergeCell ref="AB29:AC30"/>
+    <mergeCell ref="AD29:AE30"/>
+    <mergeCell ref="AX29:AY30"/>
+    <mergeCell ref="AZ29:BA30"/>
+    <mergeCell ref="BB29:BC30"/>
+    <mergeCell ref="AF29:AG30"/>
+    <mergeCell ref="AH29:AI30"/>
+    <mergeCell ref="AJ29:AK30"/>
+    <mergeCell ref="AL29:AM30"/>
+    <mergeCell ref="AN29:AO30"/>
+    <mergeCell ref="AP29:AQ30"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="AZ27:BA28"/>
+    <mergeCell ref="BB27:BC28"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="N29:O30"/>
+    <mergeCell ref="P29:Q30"/>
+    <mergeCell ref="R29:S30"/>
+    <mergeCell ref="AN27:AO28"/>
+    <mergeCell ref="AP27:AQ28"/>
+    <mergeCell ref="AR27:AS28"/>
+    <mergeCell ref="AT27:AU28"/>
+    <mergeCell ref="AV27:AW28"/>
+    <mergeCell ref="AX27:AY28"/>
+    <mergeCell ref="AB27:AC28"/>
+    <mergeCell ref="AD27:AE28"/>
     <mergeCell ref="G3:U3"/>
     <mergeCell ref="G5:U5"/>
     <mergeCell ref="G8:U8"/>
@@ -6697,196 +6920,23 @@
     <mergeCell ref="AF5:AK5"/>
     <mergeCell ref="AF8:AR8"/>
     <mergeCell ref="G7:U7"/>
-    <mergeCell ref="T13:U14"/>
-    <mergeCell ref="V13:W14"/>
-    <mergeCell ref="X13:Y14"/>
-    <mergeCell ref="Z13:AA14"/>
-    <mergeCell ref="AF13:AG14"/>
-    <mergeCell ref="AH13:AI14"/>
-    <mergeCell ref="AJ13:AK14"/>
-    <mergeCell ref="AL13:AM14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="R13:S14"/>
+    <mergeCell ref="T27:U28"/>
+    <mergeCell ref="V27:W28"/>
+    <mergeCell ref="X27:Y28"/>
+    <mergeCell ref="Z27:AA28"/>
+    <mergeCell ref="AF27:AG28"/>
+    <mergeCell ref="AH27:AI28"/>
+    <mergeCell ref="AJ27:AK28"/>
+    <mergeCell ref="AL27:AM28"/>
+    <mergeCell ref="P27:Q28"/>
+    <mergeCell ref="R27:S28"/>
     <mergeCell ref="G4:U4"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="AZ13:BA14"/>
-    <mergeCell ref="BB13:BC14"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="R15:S16"/>
-    <mergeCell ref="AN13:AO14"/>
-    <mergeCell ref="AP13:AQ14"/>
-    <mergeCell ref="AR13:AS14"/>
-    <mergeCell ref="AT13:AU14"/>
-    <mergeCell ref="AV13:AW14"/>
-    <mergeCell ref="AX13:AY14"/>
-    <mergeCell ref="AB13:AC14"/>
-    <mergeCell ref="AD13:AE14"/>
-    <mergeCell ref="AX15:AY16"/>
-    <mergeCell ref="AZ15:BA16"/>
-    <mergeCell ref="BB15:BC16"/>
-    <mergeCell ref="AF15:AG16"/>
-    <mergeCell ref="AH15:AI16"/>
-    <mergeCell ref="AJ15:AK16"/>
-    <mergeCell ref="AL15:AM16"/>
-    <mergeCell ref="AN15:AO16"/>
-    <mergeCell ref="AP15:AQ16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="AR15:AS16"/>
-    <mergeCell ref="AT15:AU16"/>
-    <mergeCell ref="AV15:AW16"/>
-    <mergeCell ref="T15:U16"/>
-    <mergeCell ref="V15:W16"/>
-    <mergeCell ref="X15:Y16"/>
-    <mergeCell ref="Z15:AA16"/>
-    <mergeCell ref="AB15:AC16"/>
-    <mergeCell ref="AD15:AE16"/>
-    <mergeCell ref="AZ17:BA18"/>
-    <mergeCell ref="BB17:BC18"/>
-    <mergeCell ref="P20:BB25"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="AN17:AO18"/>
-    <mergeCell ref="AP17:AQ18"/>
-    <mergeCell ref="AR17:AS18"/>
-    <mergeCell ref="AT17:AU18"/>
-    <mergeCell ref="AV17:AW18"/>
-    <mergeCell ref="AX17:AY18"/>
-    <mergeCell ref="AB17:AC18"/>
-    <mergeCell ref="AD17:AE18"/>
-    <mergeCell ref="AF17:AG18"/>
-    <mergeCell ref="AH17:AI18"/>
-    <mergeCell ref="AJ17:AK18"/>
-    <mergeCell ref="AL17:AM18"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="R17:S18"/>
-    <mergeCell ref="T17:U18"/>
-    <mergeCell ref="V17:W18"/>
-    <mergeCell ref="X17:Y18"/>
-    <mergeCell ref="Z17:AA18"/>
-    <mergeCell ref="E30:Z32"/>
-    <mergeCell ref="E33:Z34"/>
-    <mergeCell ref="E35:Z36"/>
-    <mergeCell ref="AB30:BB36"/>
-    <mergeCell ref="AB29:BB29"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="Y43:Z44"/>
-    <mergeCell ref="AA43:AB44"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AE43:AF44"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:R44"/>
-    <mergeCell ref="S43:T44"/>
-    <mergeCell ref="U43:V44"/>
-    <mergeCell ref="W43:X44"/>
-    <mergeCell ref="AW43:AX44"/>
-    <mergeCell ref="AY43:AZ44"/>
-    <mergeCell ref="BA43:BB44"/>
-    <mergeCell ref="AG43:AJ44"/>
-    <mergeCell ref="AG45:AJ46"/>
-    <mergeCell ref="AG47:AJ48"/>
-    <mergeCell ref="AS45:AT46"/>
-    <mergeCell ref="AU45:AV46"/>
-    <mergeCell ref="AW45:AX46"/>
-    <mergeCell ref="AY45:AZ46"/>
-    <mergeCell ref="AK43:AL44"/>
-    <mergeCell ref="AM43:AN44"/>
-    <mergeCell ref="AO43:AP44"/>
-    <mergeCell ref="AQ43:AR44"/>
-    <mergeCell ref="AS43:AT44"/>
-    <mergeCell ref="AU43:AV44"/>
-    <mergeCell ref="U45:V46"/>
-    <mergeCell ref="W45:X46"/>
-    <mergeCell ref="Y45:Z46"/>
-    <mergeCell ref="AA45:AB46"/>
-    <mergeCell ref="AC45:AD46"/>
-    <mergeCell ref="AE45:AF46"/>
-    <mergeCell ref="AG49:AJ50"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q45:R46"/>
-    <mergeCell ref="S45:T46"/>
-    <mergeCell ref="AA47:AB48"/>
-    <mergeCell ref="AC47:AD48"/>
-    <mergeCell ref="AE47:AF48"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="G49:H50"/>
-    <mergeCell ref="I49:J50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:T48"/>
-    <mergeCell ref="U47:V48"/>
-    <mergeCell ref="W47:X48"/>
-    <mergeCell ref="Y47:Z48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G47:H48"/>
-    <mergeCell ref="I47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="AM49:AN50"/>
-    <mergeCell ref="AO49:AP50"/>
-    <mergeCell ref="AQ49:AR50"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="U49:V50"/>
-    <mergeCell ref="W49:X50"/>
-    <mergeCell ref="Y49:Z50"/>
-    <mergeCell ref="AA49:AB50"/>
-    <mergeCell ref="AS49:AT50"/>
-    <mergeCell ref="AU49:AV50"/>
-    <mergeCell ref="AW49:AX50"/>
-    <mergeCell ref="AY49:AZ50"/>
-    <mergeCell ref="BA49:BB50"/>
-    <mergeCell ref="G52:U53"/>
-    <mergeCell ref="AL52:AY53"/>
-    <mergeCell ref="BA45:BB46"/>
-    <mergeCell ref="AK47:AL48"/>
-    <mergeCell ref="AM47:AN48"/>
-    <mergeCell ref="AO47:AP48"/>
-    <mergeCell ref="AQ47:AR48"/>
-    <mergeCell ref="AS47:AT48"/>
-    <mergeCell ref="AU47:AV48"/>
-    <mergeCell ref="AW47:AX48"/>
-    <mergeCell ref="AY47:AZ48"/>
-    <mergeCell ref="BA47:BB48"/>
-    <mergeCell ref="AC49:AD50"/>
-    <mergeCell ref="AE49:AF50"/>
-    <mergeCell ref="AK45:AL46"/>
-    <mergeCell ref="AM45:AN46"/>
-    <mergeCell ref="AO45:AP46"/>
-    <mergeCell ref="AQ45:AR46"/>
-    <mergeCell ref="AK49:AL50"/>
+    <mergeCell ref="U15:V16"/>
+    <mergeCell ref="W15:X16"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="AA15:AB16"/>
+    <mergeCell ref="AC15:AD16"/>
+    <mergeCell ref="AE15:AF16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/Vorlagen/Inbetriebnahme_Protokoll_MRS.xlsx
+++ b/Vorlagen/Inbetriebnahme_Protokoll_MRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgadmin\source\repos\ServiceTool\Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FABED-033B-4577-A997-5599B84A68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7E42D5-E5E2-4122-AB50-61B9B5E178B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{05895BAA-18DF-4997-A35E-D6804436E8A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
   <si>
     <t>Inbetriebnahmeprotokoll MRS</t>
   </si>
@@ -308,9 +308,6 @@
     <t>∆ P Filter</t>
   </si>
   <si>
-    <t>Ort, Datum, Unterschrift Verfahrenstechniker</t>
-  </si>
-  <si>
     <t>Unterschrift Kunde</t>
   </si>
   <si>
@@ -321,6 +318,12 @@
   </si>
   <si>
     <t>AF3</t>
+  </si>
+  <si>
+    <t>Unterschrift Verfahrenstechniker</t>
+  </si>
+  <si>
+    <t>Datum, Ort</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,10 +663,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -681,13 +696,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -699,58 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1169,8 +1175,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:BD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54:AH54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3751,23 +3757,23 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
+      <c r="G3" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -3779,14 +3785,14 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AF3" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
+      <c r="AF3" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3797,23 +3803,23 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="53">
+      <c r="G4" s="57">
         <v>4</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -3833,21 +3839,21 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -3859,12 +3865,12 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -3907,21 +3913,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -3941,21 +3947,21 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -3967,19 +3973,19 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
     </row>
     <row r="9" spans="1:55" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -3988,21 +3994,21 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -4012,19 +4018,19 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -4412,587 +4418,587 @@
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="72"/>
-      <c r="BB15" s="50"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="58"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="58"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="58"/>
+      <c r="BB15" s="54"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="42">
         <v>1</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="74"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="74"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="74"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="74"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="74"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="74"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="59"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="59"/>
+      <c r="AV16" s="60"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="59"/>
+      <c r="BB16" s="60"/>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="R17" s="50"/>
-      <c r="S17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="T17" s="50"/>
-      <c r="U17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="50"/>
-      <c r="BA17" s="72"/>
-      <c r="BB17" s="50"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="54"/>
+      <c r="K17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="54"/>
+      <c r="O17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="54"/>
+      <c r="S17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" s="54"/>
+      <c r="U17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" s="54"/>
+      <c r="W17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="54"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="42">
         <v>2</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="74"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="74"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="74"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="59"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="60"/>
       <c r="BD18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="50"/>
-      <c r="S19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="50"/>
-      <c r="U19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="V19" s="50"/>
-      <c r="W19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="50"/>
-      <c r="BA19" s="72"/>
-      <c r="BB19" s="50"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="54"/>
+      <c r="S19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" s="54"/>
+      <c r="U19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" s="54"/>
+      <c r="W19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="54"/>
     </row>
     <row r="20" spans="1:56" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="42">
         <v>3</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="74"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="74"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="74"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="74"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="74"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="74"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="74"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="74"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="60"/>
+      <c r="AU20" s="59"/>
+      <c r="AV20" s="60"/>
+      <c r="AW20" s="59"/>
+      <c r="AX20" s="60"/>
+      <c r="AY20" s="59"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="59"/>
+      <c r="BB20" s="60"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="T21" s="50"/>
-      <c r="U21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="V21" s="50"/>
-      <c r="W21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="72"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="72"/>
-      <c r="BB21" s="50"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="54"/>
+      <c r="K21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="54"/>
+      <c r="S21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="54"/>
+      <c r="U21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21" s="54"/>
+      <c r="W21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="58"/>
+      <c r="BB21" s="54"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="42">
         <v>4</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="74"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="74"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="74"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="74"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="74"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="74"/>
-      <c r="AY22" s="73"/>
-      <c r="AZ22" s="74"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="74"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="59"/>
+      <c r="AV22" s="60"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="59"/>
+      <c r="BB22" s="60"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -5173,115 +5179,115 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="50"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="50"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="50"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="50"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="50"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="50"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="50"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="50"/>
-      <c r="AZ27" s="49"/>
-      <c r="BA27" s="50"/>
-      <c r="BB27" s="49"/>
-      <c r="BC27" s="50"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="54"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="54"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="54"/>
+      <c r="BB27" s="53"/>
+      <c r="BC27" s="54"/>
     </row>
     <row r="28" spans="1:56" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="6"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="52"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="51"/>
-      <c r="BC28" s="52"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="55"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="55"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="55"/>
+      <c r="BC28" s="56"/>
     </row>
     <row r="29" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
@@ -5289,106 +5295,106 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="50"/>
-      <c r="N29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="O29" s="50"/>
-      <c r="P29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="S29" s="50"/>
-      <c r="T29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="U29" s="50"/>
-      <c r="V29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="W29" s="50"/>
-      <c r="X29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI29" s="50"/>
-      <c r="AJ29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM29" s="50"/>
-      <c r="AN29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO29" s="50"/>
-      <c r="AP29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW29" s="50"/>
-      <c r="AX29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA29" s="50"/>
-      <c r="BB29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC29" s="50"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="54"/>
+      <c r="L29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="54"/>
+      <c r="N29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="54"/>
+      <c r="P29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="S29" s="54"/>
+      <c r="T29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="54"/>
+      <c r="V29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="W29" s="54"/>
+      <c r="X29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC29" s="54"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
@@ -5396,163 +5402,163 @@
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="51"/>
-      <c r="AY30" s="52"/>
-      <c r="AZ30" s="51"/>
-      <c r="BA30" s="52"/>
-      <c r="BB30" s="51"/>
-      <c r="BC30" s="52"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="55"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="55"/>
+      <c r="BC30" s="56"/>
     </row>
     <row r="31" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="50"/>
-      <c r="N31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="O31" s="50"/>
-      <c r="P31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="S31" s="50"/>
-      <c r="T31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="U31" s="50"/>
-      <c r="V31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="W31" s="50"/>
-      <c r="X31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI31" s="50"/>
-      <c r="AJ31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA31" s="50"/>
-      <c r="BB31" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC31" s="50"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="54"/>
+      <c r="L31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="N31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="O31" s="54"/>
+      <c r="P31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="S31" s="54"/>
+      <c r="T31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="54"/>
+      <c r="V31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="W31" s="54"/>
+      <c r="X31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG31" s="54"/>
+      <c r="AH31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM31" s="54"/>
+      <c r="AN31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU31" s="54"/>
+      <c r="AV31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW31" s="54"/>
+      <c r="AX31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY31" s="54"/>
+      <c r="AZ31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA31" s="54"/>
+      <c r="BB31" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC31" s="54"/>
     </row>
     <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5560,58 +5566,58 @@
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="51"/>
-      <c r="AO32" s="52"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="52"/>
-      <c r="AR32" s="51"/>
-      <c r="AS32" s="52"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="52"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="52"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="52"/>
-      <c r="BB32" s="51"/>
-      <c r="BC32" s="52"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="55"/>
+      <c r="AW32" s="56"/>
+      <c r="AX32" s="55"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="55"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="55"/>
+      <c r="BC32" s="56"/>
     </row>
     <row r="33" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:55" x14ac:dyDescent="0.2">
@@ -5624,8 +5630,8 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
@@ -5634,45 +5640,45 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="54"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="54"/>
-      <c r="AS34" s="54"/>
-      <c r="AT34" s="54"/>
-      <c r="AU34" s="54"/>
-      <c r="AV34" s="54"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="54"/>
-      <c r="BA34" s="54"/>
-      <c r="BB34" s="55"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="73"/>
+      <c r="BA34" s="73"/>
+      <c r="BB34" s="74"/>
     </row>
     <row r="35" spans="1:55" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
@@ -5682,53 +5688,53 @@
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="69"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="57"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+      <c r="AO35" s="48"/>
+      <c r="AP35" s="48"/>
+      <c r="AQ35" s="48"/>
+      <c r="AR35" s="48"/>
+      <c r="AS35" s="48"/>
+      <c r="AT35" s="48"/>
+      <c r="AU35" s="48"/>
+      <c r="AV35" s="48"/>
+      <c r="AW35" s="48"/>
+      <c r="AX35" s="48"/>
+      <c r="AY35" s="48"/>
+      <c r="AZ35" s="48"/>
+      <c r="BA35" s="48"/>
+      <c r="BB35" s="75"/>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
@@ -5740,53 +5746,53 @@
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="63"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
-      <c r="AZ36" s="56"/>
-      <c r="BA36" s="56"/>
-      <c r="BB36" s="57"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="48"/>
+      <c r="AG36" s="48"/>
+      <c r="AH36" s="48"/>
+      <c r="AI36" s="48"/>
+      <c r="AJ36" s="48"/>
+      <c r="AK36" s="48"/>
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="48"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="48"/>
+      <c r="AS36" s="48"/>
+      <c r="AT36" s="48"/>
+      <c r="AU36" s="48"/>
+      <c r="AV36" s="48"/>
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="48"/>
+      <c r="AY36" s="48"/>
+      <c r="AZ36" s="48"/>
+      <c r="BA36" s="48"/>
+      <c r="BB36" s="75"/>
     </row>
     <row r="37" spans="1:55" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
@@ -5796,53 +5802,53 @@
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="M37" s="26"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="56"/>
-      <c r="AQ37" s="56"/>
-      <c r="AR37" s="56"/>
-      <c r="AS37" s="56"/>
-      <c r="AT37" s="56"/>
-      <c r="AU37" s="56"/>
-      <c r="AV37" s="56"/>
-      <c r="AW37" s="56"/>
-      <c r="AX37" s="56"/>
-      <c r="AY37" s="56"/>
-      <c r="AZ37" s="56"/>
-      <c r="BA37" s="56"/>
-      <c r="BB37" s="57"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="48"/>
+      <c r="AQ37" s="48"/>
+      <c r="AR37" s="48"/>
+      <c r="AS37" s="48"/>
+      <c r="AT37" s="48"/>
+      <c r="AU37" s="48"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="48"/>
+      <c r="AY37" s="48"/>
+      <c r="AZ37" s="48"/>
+      <c r="BA37" s="48"/>
+      <c r="BB37" s="75"/>
     </row>
     <row r="38" spans="1:55" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
@@ -5854,53 +5860,53 @@
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="63"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="26"/>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56"/>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="56"/>
-      <c r="AQ38" s="56"/>
-      <c r="AR38" s="56"/>
-      <c r="AS38" s="56"/>
-      <c r="AT38" s="56"/>
-      <c r="AU38" s="56"/>
-      <c r="AV38" s="56"/>
-      <c r="AW38" s="56"/>
-      <c r="AX38" s="56"/>
-      <c r="AY38" s="56"/>
-      <c r="AZ38" s="56"/>
-      <c r="BA38" s="56"/>
-      <c r="BB38" s="57"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="48"/>
+      <c r="AO38" s="48"/>
+      <c r="AP38" s="48"/>
+      <c r="AQ38" s="48"/>
+      <c r="AR38" s="48"/>
+      <c r="AS38" s="48"/>
+      <c r="AT38" s="48"/>
+      <c r="AU38" s="48"/>
+      <c r="AV38" s="48"/>
+      <c r="AW38" s="48"/>
+      <c r="AX38" s="48"/>
+      <c r="AY38" s="48"/>
+      <c r="AZ38" s="48"/>
+      <c r="BA38" s="48"/>
+      <c r="BB38" s="75"/>
     </row>
     <row r="39" spans="1:55" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
@@ -5910,50 +5916,50 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="63"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="69"/>
       <c r="M39" s="20"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="58"/>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="58"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="58"/>
-      <c r="AP39" s="58"/>
-      <c r="AQ39" s="58"/>
-      <c r="AR39" s="58"/>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="58"/>
-      <c r="AU39" s="58"/>
-      <c r="AV39" s="58"/>
-      <c r="AW39" s="58"/>
-      <c r="AX39" s="58"/>
-      <c r="AY39" s="58"/>
-      <c r="AZ39" s="58"/>
-      <c r="BA39" s="58"/>
-      <c r="BB39" s="59"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="76"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="76"/>
+      <c r="X39" s="76"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="76"/>
+      <c r="AJ39" s="76"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="76"/>
+      <c r="AN39" s="76"/>
+      <c r="AO39" s="76"/>
+      <c r="AP39" s="76"/>
+      <c r="AQ39" s="76"/>
+      <c r="AR39" s="76"/>
+      <c r="AS39" s="76"/>
+      <c r="AT39" s="76"/>
+      <c r="AU39" s="76"/>
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="76"/>
+      <c r="AX39" s="76"/>
+      <c r="AY39" s="76"/>
+      <c r="AZ39" s="76"/>
+      <c r="BA39" s="76"/>
+      <c r="BB39" s="77"/>
     </row>
     <row r="40" spans="1:55" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:55" x14ac:dyDescent="0.2">
@@ -6102,35 +6108,35 @@
       <c r="Y43" s="23"/>
       <c r="Z43" s="15"/>
       <c r="AA43" s="27"/>
-      <c r="AB43" s="69" t="s">
+      <c r="AB43" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="70"/>
-      <c r="AF43" s="70"/>
-      <c r="AG43" s="70"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="70"/>
-      <c r="AL43" s="70"/>
-      <c r="AM43" s="70"/>
-      <c r="AN43" s="70"/>
-      <c r="AO43" s="70"/>
-      <c r="AP43" s="70"/>
-      <c r="AQ43" s="70"/>
-      <c r="AR43" s="70"/>
-      <c r="AS43" s="70"/>
-      <c r="AT43" s="70"/>
-      <c r="AU43" s="70"/>
-      <c r="AV43" s="70"/>
-      <c r="AW43" s="70"/>
-      <c r="AX43" s="70"/>
-      <c r="AY43" s="70"/>
-      <c r="AZ43" s="70"/>
-      <c r="BA43" s="70"/>
-      <c r="BB43" s="71"/>
+      <c r="AC43" s="71"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="71"/>
+      <c r="AH43" s="71"/>
+      <c r="AI43" s="71"/>
+      <c r="AJ43" s="71"/>
+      <c r="AK43" s="71"/>
+      <c r="AL43" s="71"/>
+      <c r="AM43" s="71"/>
+      <c r="AN43" s="71"/>
+      <c r="AO43" s="71"/>
+      <c r="AP43" s="71"/>
+      <c r="AQ43" s="71"/>
+      <c r="AR43" s="71"/>
+      <c r="AS43" s="71"/>
+      <c r="AT43" s="71"/>
+      <c r="AU43" s="71"/>
+      <c r="AV43" s="71"/>
+      <c r="AW43" s="71"/>
+      <c r="AX43" s="71"/>
+      <c r="AY43" s="71"/>
+      <c r="AZ43" s="71"/>
+      <c r="BA43" s="71"/>
+      <c r="BB43" s="72"/>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
@@ -6139,119 +6145,119 @@
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="62"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="63"/>
       <c r="AA44" s="27"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="66"/>
-      <c r="AN44" s="66"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="66"/>
-      <c r="AQ44" s="66"/>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="66"/>
-      <c r="AU44" s="66"/>
-      <c r="AV44" s="66"/>
-      <c r="AW44" s="66"/>
-      <c r="AX44" s="66"/>
-      <c r="AY44" s="66"/>
-      <c r="AZ44" s="66"/>
-      <c r="BA44" s="66"/>
-      <c r="BB44" s="67"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="65"/>
+      <c r="AH44" s="65"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="65"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="65"/>
+      <c r="AO44" s="65"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
+      <c r="AR44" s="65"/>
+      <c r="AS44" s="65"/>
+      <c r="AT44" s="65"/>
+      <c r="AU44" s="65"/>
+      <c r="AV44" s="65"/>
+      <c r="AW44" s="65"/>
+      <c r="AX44" s="65"/>
+      <c r="AY44" s="65"/>
+      <c r="AZ44" s="65"/>
+      <c r="BA44" s="65"/>
+      <c r="BB44" s="66"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="32"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="67"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="66"/>
       <c r="AA45" s="27"/>
-      <c r="AB45" s="65"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="66"/>
-      <c r="AN45" s="66"/>
-      <c r="AO45" s="66"/>
-      <c r="AP45" s="66"/>
-      <c r="AQ45" s="66"/>
-      <c r="AR45" s="66"/>
-      <c r="AS45" s="66"/>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="66"/>
-      <c r="AV45" s="66"/>
-      <c r="AW45" s="66"/>
-      <c r="AX45" s="66"/>
-      <c r="AY45" s="66"/>
-      <c r="AZ45" s="66"/>
-      <c r="BA45" s="66"/>
-      <c r="BB45" s="67"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="65"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="65"/>
+      <c r="AN45" s="65"/>
+      <c r="AO45" s="65"/>
+      <c r="AP45" s="65"/>
+      <c r="AQ45" s="65"/>
+      <c r="AR45" s="65"/>
+      <c r="AS45" s="65"/>
+      <c r="AT45" s="65"/>
+      <c r="AU45" s="65"/>
+      <c r="AV45" s="65"/>
+      <c r="AW45" s="65"/>
+      <c r="AX45" s="65"/>
+      <c r="AY45" s="65"/>
+      <c r="AZ45" s="65"/>
+      <c r="BA45" s="65"/>
+      <c r="BB45" s="66"/>
     </row>
     <row r="46" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="30"/>
-      <c r="E46" s="62"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
       <c r="H46" s="68"/>
@@ -6272,35 +6278,35 @@
       <c r="W46" s="68"/>
       <c r="X46" s="68"/>
       <c r="Y46" s="68"/>
-      <c r="Z46" s="63"/>
+      <c r="Z46" s="69"/>
       <c r="AA46" s="27"/>
-      <c r="AB46" s="65"/>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="66"/>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="66"/>
-      <c r="AK46" s="66"/>
-      <c r="AL46" s="66"/>
-      <c r="AM46" s="66"/>
-      <c r="AN46" s="66"/>
-      <c r="AO46" s="66"/>
-      <c r="AP46" s="66"/>
-      <c r="AQ46" s="66"/>
-      <c r="AR46" s="66"/>
-      <c r="AS46" s="66"/>
-      <c r="AT46" s="66"/>
-      <c r="AU46" s="66"/>
-      <c r="AV46" s="66"/>
-      <c r="AW46" s="66"/>
-      <c r="AX46" s="66"/>
-      <c r="AY46" s="66"/>
-      <c r="AZ46" s="66"/>
-      <c r="BA46" s="66"/>
-      <c r="BB46" s="67"/>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="65"/>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="65"/>
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="65"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="65"/>
+      <c r="AK46" s="65"/>
+      <c r="AL46" s="65"/>
+      <c r="AM46" s="65"/>
+      <c r="AN46" s="65"/>
+      <c r="AO46" s="65"/>
+      <c r="AP46" s="65"/>
+      <c r="AQ46" s="65"/>
+      <c r="AR46" s="65"/>
+      <c r="AS46" s="65"/>
+      <c r="AT46" s="65"/>
+      <c r="AU46" s="65"/>
+      <c r="AV46" s="65"/>
+      <c r="AW46" s="65"/>
+      <c r="AX46" s="65"/>
+      <c r="AY46" s="65"/>
+      <c r="AZ46" s="65"/>
+      <c r="BA46" s="65"/>
+      <c r="BB46" s="66"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
@@ -6309,63 +6315,63 @@
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="64"/>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64"/>
-      <c r="Y47" s="64"/>
-      <c r="Z47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="63"/>
       <c r="AA47" s="27"/>
-      <c r="AB47" s="65"/>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="66"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="66"/>
-      <c r="AK47" s="66"/>
-      <c r="AL47" s="66"/>
-      <c r="AM47" s="66"/>
-      <c r="AN47" s="66"/>
-      <c r="AO47" s="66"/>
-      <c r="AP47" s="66"/>
-      <c r="AQ47" s="66"/>
-      <c r="AR47" s="66"/>
-      <c r="AS47" s="66"/>
-      <c r="AT47" s="66"/>
-      <c r="AU47" s="66"/>
-      <c r="AV47" s="66"/>
-      <c r="AW47" s="66"/>
-      <c r="AX47" s="66"/>
-      <c r="AY47" s="66"/>
-      <c r="AZ47" s="66"/>
-      <c r="BA47" s="66"/>
-      <c r="BB47" s="67"/>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="65"/>
+      <c r="AD47" s="65"/>
+      <c r="AE47" s="65"/>
+      <c r="AF47" s="65"/>
+      <c r="AG47" s="65"/>
+      <c r="AH47" s="65"/>
+      <c r="AI47" s="65"/>
+      <c r="AJ47" s="65"/>
+      <c r="AK47" s="65"/>
+      <c r="AL47" s="65"/>
+      <c r="AM47" s="65"/>
+      <c r="AN47" s="65"/>
+      <c r="AO47" s="65"/>
+      <c r="AP47" s="65"/>
+      <c r="AQ47" s="65"/>
+      <c r="AR47" s="65"/>
+      <c r="AS47" s="65"/>
+      <c r="AT47" s="65"/>
+      <c r="AU47" s="65"/>
+      <c r="AV47" s="65"/>
+      <c r="AW47" s="65"/>
+      <c r="AX47" s="65"/>
+      <c r="AY47" s="65"/>
+      <c r="AZ47" s="65"/>
+      <c r="BA47" s="65"/>
+      <c r="BB47" s="66"/>
     </row>
     <row r="48" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="32"/>
-      <c r="E48" s="62"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="68"/>
       <c r="G48" s="68"/>
       <c r="H48" s="68"/>
@@ -6386,35 +6392,35 @@
       <c r="W48" s="68"/>
       <c r="X48" s="68"/>
       <c r="Y48" s="68"/>
-      <c r="Z48" s="63"/>
+      <c r="Z48" s="69"/>
       <c r="AA48" s="27"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="66"/>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="66"/>
-      <c r="AK48" s="66"/>
-      <c r="AL48" s="66"/>
-      <c r="AM48" s="66"/>
-      <c r="AN48" s="66"/>
-      <c r="AO48" s="66"/>
-      <c r="AP48" s="66"/>
-      <c r="AQ48" s="66"/>
-      <c r="AR48" s="66"/>
-      <c r="AS48" s="66"/>
-      <c r="AT48" s="66"/>
-      <c r="AU48" s="66"/>
-      <c r="AV48" s="66"/>
-      <c r="AW48" s="66"/>
-      <c r="AX48" s="66"/>
-      <c r="AY48" s="66"/>
-      <c r="AZ48" s="66"/>
-      <c r="BA48" s="66"/>
-      <c r="BB48" s="67"/>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="65"/>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="65"/>
+      <c r="AG48" s="65"/>
+      <c r="AH48" s="65"/>
+      <c r="AI48" s="65"/>
+      <c r="AJ48" s="65"/>
+      <c r="AK48" s="65"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="65"/>
+      <c r="AN48" s="65"/>
+      <c r="AO48" s="65"/>
+      <c r="AP48" s="65"/>
+      <c r="AQ48" s="65"/>
+      <c r="AR48" s="65"/>
+      <c r="AS48" s="65"/>
+      <c r="AT48" s="65"/>
+      <c r="AU48" s="65"/>
+      <c r="AV48" s="65"/>
+      <c r="AW48" s="65"/>
+      <c r="AX48" s="65"/>
+      <c r="AY48" s="65"/>
+      <c r="AZ48" s="65"/>
+      <c r="BA48" s="65"/>
+      <c r="BB48" s="66"/>
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
@@ -6423,63 +6429,63 @@
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="64"/>
-      <c r="T49" s="64"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="64"/>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="63"/>
       <c r="AA49" s="27"/>
-      <c r="AB49" s="65"/>
-      <c r="AC49" s="66"/>
-      <c r="AD49" s="66"/>
-      <c r="AE49" s="66"/>
-      <c r="AF49" s="66"/>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="66"/>
-      <c r="AK49" s="66"/>
-      <c r="AL49" s="66"/>
-      <c r="AM49" s="66"/>
-      <c r="AN49" s="66"/>
-      <c r="AO49" s="66"/>
-      <c r="AP49" s="66"/>
-      <c r="AQ49" s="66"/>
-      <c r="AR49" s="66"/>
-      <c r="AS49" s="66"/>
-      <c r="AT49" s="66"/>
-      <c r="AU49" s="66"/>
-      <c r="AV49" s="66"/>
-      <c r="AW49" s="66"/>
-      <c r="AX49" s="66"/>
-      <c r="AY49" s="66"/>
-      <c r="AZ49" s="66"/>
-      <c r="BA49" s="66"/>
-      <c r="BB49" s="67"/>
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="65"/>
+      <c r="AD49" s="65"/>
+      <c r="AE49" s="65"/>
+      <c r="AF49" s="65"/>
+      <c r="AG49" s="65"/>
+      <c r="AH49" s="65"/>
+      <c r="AI49" s="65"/>
+      <c r="AJ49" s="65"/>
+      <c r="AK49" s="65"/>
+      <c r="AL49" s="65"/>
+      <c r="AM49" s="65"/>
+      <c r="AN49" s="65"/>
+      <c r="AO49" s="65"/>
+      <c r="AP49" s="65"/>
+      <c r="AQ49" s="65"/>
+      <c r="AR49" s="65"/>
+      <c r="AS49" s="65"/>
+      <c r="AT49" s="65"/>
+      <c r="AU49" s="65"/>
+      <c r="AV49" s="65"/>
+      <c r="AW49" s="65"/>
+      <c r="AX49" s="65"/>
+      <c r="AY49" s="65"/>
+      <c r="AZ49" s="65"/>
+      <c r="BA49" s="65"/>
+      <c r="BB49" s="66"/>
     </row>
     <row r="50" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="62"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="68"/>
       <c r="G50" s="68"/>
       <c r="H50" s="68"/>
@@ -6500,8 +6506,8 @@
       <c r="W50" s="68"/>
       <c r="X50" s="68"/>
       <c r="Y50" s="68"/>
-      <c r="Z50" s="63"/>
-      <c r="AB50" s="62"/>
+      <c r="Z50" s="69"/>
+      <c r="AB50" s="67"/>
       <c r="AC50" s="68"/>
       <c r="AD50" s="68"/>
       <c r="AE50" s="68"/>
@@ -6527,7 +6533,7 @@
       <c r="AY50" s="68"/>
       <c r="AZ50" s="68"/>
       <c r="BA50" s="68"/>
-      <c r="BB50" s="63"/>
+      <c r="BB50" s="69"/>
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -6612,70 +6618,90 @@
       <c r="BB52" s="46"/>
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="G53" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="AL53" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM53" s="56"/>
-      <c r="AN53" s="56"/>
-      <c r="AO53" s="56"/>
-      <c r="AP53" s="56"/>
-      <c r="AQ53" s="56"/>
-      <c r="AR53" s="56"/>
-      <c r="AS53" s="56"/>
-      <c r="AT53" s="56"/>
-      <c r="AU53" s="56"/>
-      <c r="AV53" s="56"/>
-      <c r="AW53" s="56"/>
-      <c r="AX53" s="56"/>
-      <c r="AY53" s="56"/>
+      <c r="G53" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="48"/>
+      <c r="AB53" s="48"/>
+      <c r="AC53" s="48"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
+      <c r="AF53" s="48"/>
+      <c r="AG53" s="48"/>
+      <c r="AH53" s="48"/>
+      <c r="AL53" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM53" s="48"/>
+      <c r="AN53" s="48"/>
+      <c r="AO53" s="48"/>
+      <c r="AP53" s="48"/>
+      <c r="AQ53" s="48"/>
+      <c r="AR53" s="48"/>
+      <c r="AS53" s="48"/>
+      <c r="AT53" s="48"/>
+      <c r="AU53" s="48"/>
+      <c r="AV53" s="48"/>
+      <c r="AW53" s="48"/>
+      <c r="AX53" s="48"/>
+      <c r="AY53" s="48"/>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="AL54" s="48"/>
-      <c r="AM54" s="48"/>
-      <c r="AN54" s="48"/>
-      <c r="AO54" s="48"/>
-      <c r="AP54" s="48"/>
-      <c r="AQ54" s="48"/>
-      <c r="AR54" s="48"/>
-      <c r="AS54" s="48"/>
-      <c r="AT54" s="48"/>
-      <c r="AU54" s="48"/>
-      <c r="AV54" s="48"/>
-      <c r="AW54" s="48"/>
-      <c r="AX54" s="48"/>
-      <c r="AY54" s="48"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="49"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
+      <c r="AD54" s="49"/>
+      <c r="AE54" s="49"/>
+      <c r="AF54" s="49"/>
+      <c r="AG54" s="49"/>
+      <c r="AH54" s="49"/>
+      <c r="AL54" s="49"/>
+      <c r="AM54" s="49"/>
+      <c r="AN54" s="49"/>
+      <c r="AO54" s="49"/>
+      <c r="AP54" s="49"/>
+      <c r="AQ54" s="49"/>
+      <c r="AR54" s="49"/>
+      <c r="AS54" s="49"/>
+      <c r="AT54" s="49"/>
+      <c r="AU54" s="49"/>
+      <c r="AV54" s="49"/>
+      <c r="AW54" s="49"/>
+      <c r="AX54" s="49"/>
+      <c r="AY54" s="49"/>
     </row>
     <row r="55" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
@@ -6684,62 +6710,66 @@
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
+      <c r="G55" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
       <c r="V55" s="45"/>
       <c r="W55" s="45"/>
       <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="45"/>
-      <c r="AE55" s="45"/>
-      <c r="AF55" s="45"/>
-      <c r="AG55" s="45"/>
-      <c r="AH55" s="45"/>
+      <c r="Y55" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
       <c r="AI55" s="45"/>
       <c r="AJ55" s="45"/>
       <c r="AK55" s="45"/>
-      <c r="AL55" s="45"/>
-      <c r="AM55" s="45"/>
-      <c r="AN55" s="45"/>
-      <c r="AO55" s="45"/>
-      <c r="AP55" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ55" s="45"/>
-      <c r="AR55" s="45"/>
-      <c r="AS55" s="45"/>
-      <c r="AT55" s="45"/>
-      <c r="AU55" s="45"/>
-      <c r="AV55" s="45"/>
-      <c r="AW55" s="45"/>
-      <c r="AX55" s="45"/>
-      <c r="AY55" s="45"/>
+      <c r="AL55" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM55" s="51"/>
+      <c r="AN55" s="51"/>
+      <c r="AO55" s="51"/>
+      <c r="AP55" s="51"/>
+      <c r="AQ55" s="51"/>
+      <c r="AR55" s="51"/>
+      <c r="AS55" s="51"/>
+      <c r="AT55" s="51"/>
+      <c r="AU55" s="51"/>
+      <c r="AV55" s="51"/>
+      <c r="AW55" s="51"/>
+      <c r="AX55" s="51"/>
+      <c r="AY55" s="51"/>
       <c r="AZ55" s="45"/>
       <c r="BA55" s="45"/>
       <c r="BB55" s="45"/>
       <c r="BC55" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
+    <mergeCell ref="Y53:AH53"/>
+    <mergeCell ref="Y54:AH54"/>
     <mergeCell ref="AU21:AV22"/>
     <mergeCell ref="AW21:AX22"/>
     <mergeCell ref="AY21:AZ22"/>
@@ -6871,6 +6901,9 @@
     <mergeCell ref="J31:K32"/>
     <mergeCell ref="L31:M32"/>
     <mergeCell ref="N31:O32"/>
+    <mergeCell ref="AL29:AM30"/>
+    <mergeCell ref="AN29:AO30"/>
+    <mergeCell ref="AP29:AQ30"/>
     <mergeCell ref="AR29:AS30"/>
     <mergeCell ref="AT29:AU30"/>
     <mergeCell ref="AV29:AW30"/>
@@ -6880,21 +6913,6 @@
     <mergeCell ref="Z29:AA30"/>
     <mergeCell ref="AB29:AC30"/>
     <mergeCell ref="AD29:AE30"/>
-    <mergeCell ref="AX29:AY30"/>
-    <mergeCell ref="AZ29:BA30"/>
-    <mergeCell ref="BB29:BC30"/>
-    <mergeCell ref="AF29:AG30"/>
-    <mergeCell ref="AH29:AI30"/>
-    <mergeCell ref="AJ29:AK30"/>
-    <mergeCell ref="AL29:AM30"/>
-    <mergeCell ref="AN29:AO30"/>
-    <mergeCell ref="AP29:AQ30"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N27:O28"/>
     <mergeCell ref="AZ27:BA28"/>
     <mergeCell ref="BB27:BC28"/>
     <mergeCell ref="D29:E30"/>
@@ -6913,6 +6931,25 @@
     <mergeCell ref="AX27:AY28"/>
     <mergeCell ref="AB27:AC28"/>
     <mergeCell ref="AD27:AE28"/>
+    <mergeCell ref="AX29:AY30"/>
+    <mergeCell ref="AZ29:BA30"/>
+    <mergeCell ref="BB29:BC30"/>
+    <mergeCell ref="AF29:AG30"/>
+    <mergeCell ref="AH29:AI30"/>
+    <mergeCell ref="AJ29:AK30"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="AA15:AB16"/>
+    <mergeCell ref="AC15:AD16"/>
+    <mergeCell ref="AE15:AF16"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="Y55:AH55"/>
+    <mergeCell ref="G55:U55"/>
+    <mergeCell ref="AL55:AY55"/>
     <mergeCell ref="G3:U3"/>
     <mergeCell ref="G5:U5"/>
     <mergeCell ref="G8:U8"/>
@@ -6933,10 +6970,6 @@
     <mergeCell ref="G4:U4"/>
     <mergeCell ref="U15:V16"/>
     <mergeCell ref="W15:X16"/>
-    <mergeCell ref="Y15:Z16"/>
-    <mergeCell ref="AA15:AB16"/>
-    <mergeCell ref="AC15:AD16"/>
-    <mergeCell ref="AE15:AF16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
